--- a/wegiel_kamienny_szereg.xlsx
+++ b/wegiel_kamienny_szereg.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="684" yWindow="600" windowWidth="21792" windowHeight="8676"/>
   </bookViews>
   <sheets>
     <sheet name="OPIS" sheetId="1" r:id="rId1"/>
-    <sheet name="TABLICA" sheetId="2" r:id="rId3"/>
+    <sheet name="TABLICA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="48">
   <si>
     <t>Kategoria:</t>
   </si>
@@ -163,7 +165,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,7 +172,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -184,7 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3" tint="0"/>
+        <fgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,115 +199,404 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000" tint="0"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000" tint="0"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000" tint="0"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000" tint="0"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Kolumna" xfId="1"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="200" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="50" customHeight="1">
+    <row r="2" spans="1:2" ht="49.95" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1">
+    <row r="6" spans="1:2" ht="65.400000000000006" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="50" customHeight="1">
+    <row r="9" spans="1:2" ht="49.95" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -315,613 +605,613 @@
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FN6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:170">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1" t="s">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1" t="s">
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1" t="s">
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1" t="s">
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1" t="s">
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1" t="s">
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="5"/>
+      <c r="CM1" s="5"/>
+      <c r="CN1" s="5"/>
+      <c r="CO1" s="5"/>
+      <c r="CP1" s="5"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="5"/>
+      <c r="CS1" s="5"/>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1" t="s">
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="5"/>
+      <c r="DK1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="1"/>
-      <c r="DP1" s="1"/>
-      <c r="DQ1" s="1"/>
-      <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
-      <c r="DT1" s="1"/>
-      <c r="DU1" s="1"/>
-      <c r="DV1" s="1"/>
-      <c r="DW1" s="1"/>
-      <c r="DX1" s="1"/>
-      <c r="DY1" s="1" t="s">
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="5"/>
+      <c r="DQ1" s="5"/>
+      <c r="DR1" s="5"/>
+      <c r="DS1" s="5"/>
+      <c r="DT1" s="5"/>
+      <c r="DU1" s="5"/>
+      <c r="DV1" s="5"/>
+      <c r="DW1" s="5"/>
+      <c r="DX1" s="5"/>
+      <c r="DY1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="DZ1" s="1"/>
-      <c r="EA1" s="1"/>
-      <c r="EB1" s="1"/>
-      <c r="EC1" s="1"/>
-      <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
-      <c r="EF1" s="1"/>
-      <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
-      <c r="EI1" s="1"/>
-      <c r="EJ1" s="1"/>
-      <c r="EK1" s="1"/>
-      <c r="EL1" s="1"/>
-      <c r="EM1" s="1" t="s">
+      <c r="DZ1" s="5"/>
+      <c r="EA1" s="5"/>
+      <c r="EB1" s="5"/>
+      <c r="EC1" s="5"/>
+      <c r="ED1" s="5"/>
+      <c r="EE1" s="5"/>
+      <c r="EF1" s="5"/>
+      <c r="EG1" s="5"/>
+      <c r="EH1" s="5"/>
+      <c r="EI1" s="5"/>
+      <c r="EJ1" s="5"/>
+      <c r="EK1" s="5"/>
+      <c r="EL1" s="5"/>
+      <c r="EM1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="EN1" s="1"/>
-      <c r="EO1" s="1"/>
-      <c r="EP1" s="1"/>
-      <c r="EQ1" s="1"/>
-      <c r="ER1" s="1"/>
-      <c r="ES1" s="1"/>
-      <c r="ET1" s="1"/>
-      <c r="EU1" s="1"/>
-      <c r="EV1" s="1"/>
-      <c r="EW1" s="1"/>
-      <c r="EX1" s="1"/>
-      <c r="EY1" s="1"/>
-      <c r="EZ1" s="1"/>
-      <c r="FA1" s="1" t="s">
+      <c r="EN1" s="5"/>
+      <c r="EO1" s="5"/>
+      <c r="EP1" s="5"/>
+      <c r="EQ1" s="5"/>
+      <c r="ER1" s="5"/>
+      <c r="ES1" s="5"/>
+      <c r="ET1" s="5"/>
+      <c r="EU1" s="5"/>
+      <c r="EV1" s="5"/>
+      <c r="EW1" s="5"/>
+      <c r="EX1" s="5"/>
+      <c r="EY1" s="5"/>
+      <c r="EZ1" s="5"/>
+      <c r="FA1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="FB1" s="1"/>
-      <c r="FC1" s="1"/>
-      <c r="FD1" s="1"/>
-      <c r="FE1" s="1"/>
-      <c r="FF1" s="1"/>
-      <c r="FG1" s="1"/>
-      <c r="FH1" s="1"/>
-      <c r="FI1" s="1"/>
-      <c r="FJ1" s="1"/>
-      <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
-      <c r="FM1" s="1"/>
-      <c r="FN1" s="1"/>
+      <c r="FB1" s="5"/>
+      <c r="FC1" s="5"/>
+      <c r="FD1" s="5"/>
+      <c r="FE1" s="5"/>
+      <c r="FF1" s="5"/>
+      <c r="FG1" s="5"/>
+      <c r="FH1" s="5"/>
+      <c r="FI1" s="5"/>
+      <c r="FJ1" s="5"/>
+      <c r="FK1" s="5"/>
+      <c r="FL1" s="5"/>
+      <c r="FM1" s="5"/>
+      <c r="FN1" s="5"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:170">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1" t="s">
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1" t="s">
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
-      <c r="BS2" s="1"/>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1" t="s">
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5"/>
+      <c r="BR2" s="5"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="5"/>
+      <c r="BU2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="BV2" s="1"/>
-      <c r="BW2" s="1"/>
-      <c r="BX2" s="1"/>
-      <c r="BY2" s="1"/>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-      <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
-      <c r="CI2" s="1" t="s">
+      <c r="BV2" s="5"/>
+      <c r="BW2" s="5"/>
+      <c r="BX2" s="5"/>
+      <c r="BY2" s="5"/>
+      <c r="BZ2" s="5"/>
+      <c r="CA2" s="5"/>
+      <c r="CB2" s="5"/>
+      <c r="CC2" s="5"/>
+      <c r="CD2" s="5"/>
+      <c r="CE2" s="5"/>
+      <c r="CF2" s="5"/>
+      <c r="CG2" s="5"/>
+      <c r="CH2" s="5"/>
+      <c r="CI2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1"/>
-      <c r="CM2" s="1"/>
-      <c r="CN2" s="1"/>
-      <c r="CO2" s="1"/>
-      <c r="CP2" s="1"/>
-      <c r="CQ2" s="1"/>
-      <c r="CR2" s="1"/>
-      <c r="CS2" s="1"/>
-      <c r="CT2" s="1"/>
-      <c r="CU2" s="1"/>
-      <c r="CV2" s="1"/>
-      <c r="CW2" s="1" t="s">
+      <c r="CJ2" s="5"/>
+      <c r="CK2" s="5"/>
+      <c r="CL2" s="5"/>
+      <c r="CM2" s="5"/>
+      <c r="CN2" s="5"/>
+      <c r="CO2" s="5"/>
+      <c r="CP2" s="5"/>
+      <c r="CQ2" s="5"/>
+      <c r="CR2" s="5"/>
+      <c r="CS2" s="5"/>
+      <c r="CT2" s="5"/>
+      <c r="CU2" s="5"/>
+      <c r="CV2" s="5"/>
+      <c r="CW2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="CX2" s="1"/>
-      <c r="CY2" s="1"/>
-      <c r="CZ2" s="1"/>
-      <c r="DA2" s="1"/>
-      <c r="DB2" s="1"/>
-      <c r="DC2" s="1"/>
-      <c r="DD2" s="1"/>
-      <c r="DE2" s="1"/>
-      <c r="DF2" s="1"/>
-      <c r="DG2" s="1"/>
-      <c r="DH2" s="1"/>
-      <c r="DI2" s="1"/>
-      <c r="DJ2" s="1"/>
-      <c r="DK2" s="1" t="s">
+      <c r="CX2" s="5"/>
+      <c r="CY2" s="5"/>
+      <c r="CZ2" s="5"/>
+      <c r="DA2" s="5"/>
+      <c r="DB2" s="5"/>
+      <c r="DC2" s="5"/>
+      <c r="DD2" s="5"/>
+      <c r="DE2" s="5"/>
+      <c r="DF2" s="5"/>
+      <c r="DG2" s="5"/>
+      <c r="DH2" s="5"/>
+      <c r="DI2" s="5"/>
+      <c r="DJ2" s="5"/>
+      <c r="DK2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="DL2" s="1"/>
-      <c r="DM2" s="1"/>
-      <c r="DN2" s="1"/>
-      <c r="DO2" s="1"/>
-      <c r="DP2" s="1"/>
-      <c r="DQ2" s="1"/>
-      <c r="DR2" s="1"/>
-      <c r="DS2" s="1"/>
-      <c r="DT2" s="1"/>
-      <c r="DU2" s="1"/>
-      <c r="DV2" s="1"/>
-      <c r="DW2" s="1"/>
-      <c r="DX2" s="1"/>
-      <c r="DY2" s="1" t="s">
+      <c r="DL2" s="5"/>
+      <c r="DM2" s="5"/>
+      <c r="DN2" s="5"/>
+      <c r="DO2" s="5"/>
+      <c r="DP2" s="5"/>
+      <c r="DQ2" s="5"/>
+      <c r="DR2" s="5"/>
+      <c r="DS2" s="5"/>
+      <c r="DT2" s="5"/>
+      <c r="DU2" s="5"/>
+      <c r="DV2" s="5"/>
+      <c r="DW2" s="5"/>
+      <c r="DX2" s="5"/>
+      <c r="DY2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="DZ2" s="1"/>
-      <c r="EA2" s="1"/>
-      <c r="EB2" s="1"/>
-      <c r="EC2" s="1"/>
-      <c r="ED2" s="1"/>
-      <c r="EE2" s="1"/>
-      <c r="EF2" s="1"/>
-      <c r="EG2" s="1"/>
-      <c r="EH2" s="1"/>
-      <c r="EI2" s="1"/>
-      <c r="EJ2" s="1"/>
-      <c r="EK2" s="1"/>
-      <c r="EL2" s="1"/>
-      <c r="EM2" s="1" t="s">
+      <c r="DZ2" s="5"/>
+      <c r="EA2" s="5"/>
+      <c r="EB2" s="5"/>
+      <c r="EC2" s="5"/>
+      <c r="ED2" s="5"/>
+      <c r="EE2" s="5"/>
+      <c r="EF2" s="5"/>
+      <c r="EG2" s="5"/>
+      <c r="EH2" s="5"/>
+      <c r="EI2" s="5"/>
+      <c r="EJ2" s="5"/>
+      <c r="EK2" s="5"/>
+      <c r="EL2" s="5"/>
+      <c r="EM2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="EN2" s="1"/>
-      <c r="EO2" s="1"/>
-      <c r="EP2" s="1"/>
-      <c r="EQ2" s="1"/>
-      <c r="ER2" s="1"/>
-      <c r="ES2" s="1"/>
-      <c r="ET2" s="1"/>
-      <c r="EU2" s="1"/>
-      <c r="EV2" s="1"/>
-      <c r="EW2" s="1"/>
-      <c r="EX2" s="1"/>
-      <c r="EY2" s="1"/>
-      <c r="EZ2" s="1"/>
-      <c r="FA2" s="1" t="s">
+      <c r="EN2" s="5"/>
+      <c r="EO2" s="5"/>
+      <c r="EP2" s="5"/>
+      <c r="EQ2" s="5"/>
+      <c r="ER2" s="5"/>
+      <c r="ES2" s="5"/>
+      <c r="ET2" s="5"/>
+      <c r="EU2" s="5"/>
+      <c r="EV2" s="5"/>
+      <c r="EW2" s="5"/>
+      <c r="EX2" s="5"/>
+      <c r="EY2" s="5"/>
+      <c r="EZ2" s="5"/>
+      <c r="FA2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="FB2" s="1"/>
-      <c r="FC2" s="1"/>
-      <c r="FD2" s="1"/>
-      <c r="FE2" s="1"/>
-      <c r="FF2" s="1"/>
-      <c r="FG2" s="1"/>
-      <c r="FH2" s="1"/>
-      <c r="FI2" s="1"/>
-      <c r="FJ2" s="1"/>
-      <c r="FK2" s="1"/>
-      <c r="FL2" s="1"/>
-      <c r="FM2" s="1"/>
-      <c r="FN2" s="1"/>
+      <c r="FB2" s="5"/>
+      <c r="FC2" s="5"/>
+      <c r="FD2" s="5"/>
+      <c r="FE2" s="5"/>
+      <c r="FF2" s="5"/>
+      <c r="FG2" s="5"/>
+      <c r="FH2" s="5"/>
+      <c r="FI2" s="5"/>
+      <c r="FJ2" s="5"/>
+      <c r="FK2" s="5"/>
+      <c r="FL2" s="5"/>
+      <c r="FM2" s="5"/>
+      <c r="FN2" s="5"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:170">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1" t="s">
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1" t="s">
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1" t="s">
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1" t="s">
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="BV3" s="1"/>
-      <c r="BW3" s="1"/>
-      <c r="BX3" s="1"/>
-      <c r="BY3" s="1"/>
-      <c r="BZ3" s="1"/>
-      <c r="CA3" s="1"/>
-      <c r="CB3" s="1"/>
-      <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-      <c r="CE3" s="1"/>
-      <c r="CF3" s="1"/>
-      <c r="CG3" s="1"/>
-      <c r="CH3" s="1"/>
-      <c r="CI3" s="1" t="s">
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="CJ3" s="1"/>
-      <c r="CK3" s="1"/>
-      <c r="CL3" s="1"/>
-      <c r="CM3" s="1"/>
-      <c r="CN3" s="1"/>
-      <c r="CO3" s="1"/>
-      <c r="CP3" s="1"/>
-      <c r="CQ3" s="1"/>
-      <c r="CR3" s="1"/>
-      <c r="CS3" s="1"/>
-      <c r="CT3" s="1"/>
-      <c r="CU3" s="1"/>
-      <c r="CV3" s="1"/>
-      <c r="CW3" s="1" t="s">
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
+      <c r="CM3" s="5"/>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="5"/>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5"/>
+      <c r="CW3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="CX3" s="1"/>
-      <c r="CY3" s="1"/>
-      <c r="CZ3" s="1"/>
-      <c r="DA3" s="1"/>
-      <c r="DB3" s="1"/>
-      <c r="DC3" s="1"/>
-      <c r="DD3" s="1"/>
-      <c r="DE3" s="1"/>
-      <c r="DF3" s="1"/>
-      <c r="DG3" s="1"/>
-      <c r="DH3" s="1"/>
-      <c r="DI3" s="1"/>
-      <c r="DJ3" s="1"/>
-      <c r="DK3" s="1" t="s">
+      <c r="CX3" s="5"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="5"/>
+      <c r="DA3" s="5"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="5"/>
+      <c r="DG3" s="5"/>
+      <c r="DH3" s="5"/>
+      <c r="DI3" s="5"/>
+      <c r="DJ3" s="5"/>
+      <c r="DK3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="DL3" s="1"/>
-      <c r="DM3" s="1"/>
-      <c r="DN3" s="1"/>
-      <c r="DO3" s="1"/>
-      <c r="DP3" s="1"/>
-      <c r="DQ3" s="1"/>
-      <c r="DR3" s="1"/>
-      <c r="DS3" s="1"/>
-      <c r="DT3" s="1"/>
-      <c r="DU3" s="1"/>
-      <c r="DV3" s="1"/>
-      <c r="DW3" s="1"/>
-      <c r="DX3" s="1"/>
-      <c r="DY3" s="1" t="s">
+      <c r="DL3" s="5"/>
+      <c r="DM3" s="5"/>
+      <c r="DN3" s="5"/>
+      <c r="DO3" s="5"/>
+      <c r="DP3" s="5"/>
+      <c r="DQ3" s="5"/>
+      <c r="DR3" s="5"/>
+      <c r="DS3" s="5"/>
+      <c r="DT3" s="5"/>
+      <c r="DU3" s="5"/>
+      <c r="DV3" s="5"/>
+      <c r="DW3" s="5"/>
+      <c r="DX3" s="5"/>
+      <c r="DY3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="DZ3" s="1"/>
-      <c r="EA3" s="1"/>
-      <c r="EB3" s="1"/>
-      <c r="EC3" s="1"/>
-      <c r="ED3" s="1"/>
-      <c r="EE3" s="1"/>
-      <c r="EF3" s="1"/>
-      <c r="EG3" s="1"/>
-      <c r="EH3" s="1"/>
-      <c r="EI3" s="1"/>
-      <c r="EJ3" s="1"/>
-      <c r="EK3" s="1"/>
-      <c r="EL3" s="1"/>
-      <c r="EM3" s="1" t="s">
+      <c r="DZ3" s="5"/>
+      <c r="EA3" s="5"/>
+      <c r="EB3" s="5"/>
+      <c r="EC3" s="5"/>
+      <c r="ED3" s="5"/>
+      <c r="EE3" s="5"/>
+      <c r="EF3" s="5"/>
+      <c r="EG3" s="5"/>
+      <c r="EH3" s="5"/>
+      <c r="EI3" s="5"/>
+      <c r="EJ3" s="5"/>
+      <c r="EK3" s="5"/>
+      <c r="EL3" s="5"/>
+      <c r="EM3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="EN3" s="1"/>
-      <c r="EO3" s="1"/>
-      <c r="EP3" s="1"/>
-      <c r="EQ3" s="1"/>
-      <c r="ER3" s="1"/>
-      <c r="ES3" s="1"/>
-      <c r="ET3" s="1"/>
-      <c r="EU3" s="1"/>
-      <c r="EV3" s="1"/>
-      <c r="EW3" s="1"/>
-      <c r="EX3" s="1"/>
-      <c r="EY3" s="1"/>
-      <c r="EZ3" s="1"/>
-      <c r="FA3" s="1" t="s">
+      <c r="EN3" s="5"/>
+      <c r="EO3" s="5"/>
+      <c r="EP3" s="5"/>
+      <c r="EQ3" s="5"/>
+      <c r="ER3" s="5"/>
+      <c r="ES3" s="5"/>
+      <c r="ET3" s="5"/>
+      <c r="EU3" s="5"/>
+      <c r="EV3" s="5"/>
+      <c r="EW3" s="5"/>
+      <c r="EX3" s="5"/>
+      <c r="EY3" s="5"/>
+      <c r="EZ3" s="5"/>
+      <c r="FA3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="FB3" s="1"/>
-      <c r="FC3" s="1"/>
-      <c r="FD3" s="1"/>
-      <c r="FE3" s="1"/>
-      <c r="FF3" s="1"/>
-      <c r="FG3" s="1"/>
-      <c r="FH3" s="1"/>
-      <c r="FI3" s="1"/>
-      <c r="FJ3" s="1"/>
-      <c r="FK3" s="1"/>
-      <c r="FL3" s="1"/>
-      <c r="FM3" s="1"/>
-      <c r="FN3" s="1"/>
+      <c r="FB3" s="5"/>
+      <c r="FC3" s="5"/>
+      <c r="FD3" s="5"/>
+      <c r="FE3" s="5"/>
+      <c r="FF3" s="5"/>
+      <c r="FG3" s="5"/>
+      <c r="FH3" s="5"/>
+      <c r="FI3" s="5"/>
+      <c r="FJ3" s="5"/>
+      <c r="FK3" s="5"/>
+      <c r="FL3" s="5"/>
+      <c r="FM3" s="5"/>
+      <c r="FN3" s="5"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:170">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1427,9 +1717,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:170">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1935,11 +2225,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:170">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="4">
@@ -1949,7 +2239,7 @@
         <v>520.73</v>
       </c>
       <c r="E6" s="4">
-        <v>565.33</v>
+        <v>565.33000000000004</v>
       </c>
       <c r="F6" s="4">
         <v>706.26</v>
@@ -1988,10 +2278,10 @@
         <v>483.25</v>
       </c>
       <c r="R6" s="4">
-        <v>520.06</v>
+        <v>520.05999999999995</v>
       </c>
       <c r="S6" s="4">
-        <v>568.55</v>
+        <v>568.54999999999995</v>
       </c>
       <c r="T6" s="4">
         <v>709.12</v>
@@ -2075,7 +2365,7 @@
         <v>513.1</v>
       </c>
       <c r="AU6" s="4">
-        <v>566.8</v>
+        <v>566.79999999999995</v>
       </c>
       <c r="AV6" s="4">
         <v>695.85</v>
@@ -2198,7 +2488,7 @@
         <v>481</v>
       </c>
       <c r="CJ6" s="4">
-        <v>512.05</v>
+        <v>512.04999999999995</v>
       </c>
       <c r="CK6" s="4">
         <v>588.98</v>
@@ -2285,7 +2575,7 @@
         <v>519.5</v>
       </c>
       <c r="DM6" s="4">
-        <v>624.07</v>
+        <v>624.07000000000005</v>
       </c>
       <c r="DN6" s="4">
         <v>709.78</v>
@@ -2448,17 +2738,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="Q1:AD1"/>
-    <mergeCell ref="AE1:AR1"/>
-    <mergeCell ref="AS1:BF1"/>
-    <mergeCell ref="BG1:BT1"/>
-    <mergeCell ref="BU1:CH1"/>
-    <mergeCell ref="CI1:CV1"/>
-    <mergeCell ref="CW1:DJ1"/>
+  <mergeCells count="38">
+    <mergeCell ref="DK3:DX3"/>
+    <mergeCell ref="DY3:EL3"/>
+    <mergeCell ref="EM3:EZ3"/>
+    <mergeCell ref="FA3:FN3"/>
+    <mergeCell ref="AS3:BF3"/>
+    <mergeCell ref="BG3:BT3"/>
+    <mergeCell ref="BU3:CH3"/>
+    <mergeCell ref="CI3:CV3"/>
+    <mergeCell ref="CW3:DJ3"/>
     <mergeCell ref="DK1:DX1"/>
     <mergeCell ref="DY1:EL1"/>
     <mergeCell ref="EM1:EZ1"/>
@@ -2475,19 +2764,20 @@
     <mergeCell ref="DY2:EL2"/>
     <mergeCell ref="EM2:EZ2"/>
     <mergeCell ref="FA2:FN2"/>
+    <mergeCell ref="AS1:BF1"/>
+    <mergeCell ref="BG1:BT1"/>
+    <mergeCell ref="BU1:CH1"/>
+    <mergeCell ref="CI1:CV1"/>
+    <mergeCell ref="CW1:DJ1"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AD1"/>
+    <mergeCell ref="AE1:AR1"/>
     <mergeCell ref="C3:P3"/>
     <mergeCell ref="Q3:AD3"/>
     <mergeCell ref="AE3:AR3"/>
-    <mergeCell ref="AS3:BF3"/>
-    <mergeCell ref="BG3:BT3"/>
-    <mergeCell ref="BU3:CH3"/>
-    <mergeCell ref="CI3:CV3"/>
-    <mergeCell ref="CW3:DJ3"/>
-    <mergeCell ref="DK3:DX3"/>
-    <mergeCell ref="DY3:EL3"/>
-    <mergeCell ref="EM3:EZ3"/>
-    <mergeCell ref="FA3:FN3"/>
   </mergeCells>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>